--- a/biology/Microbiologie/Microthoracidae/Microthoracidae.xlsx
+++ b/biology/Microbiologie/Microthoracidae/Microthoracidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Microthoracidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Microthorax, dérivé du grec μικρω / mikro, « petit », et θωραξ / thorax, « cuirassé, poitrine ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Microthoracidae ont une taille généralement très petite petite (&lt; 80 μm, 16 à 60 μm selon Kahl). Ils sont une forme en croissant aplati. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est très clairsemée, typiquement avec trois cinéties somatiques préorales droites ; généralement des dikinetides, antérieures à la région buccale, et des cinéties somatiques gauches très réduites. Leur région buccale a une position variable : antérieure chez certains genres (par exemple Stammeridium) et déplacée vers la partie postérieure chez d'autres (par exemple Microthorax). Ils ont typiquement une ciliation parorale (c'est-à-dire sur le côté droit de la cavité buccale) réduite, et trois petits polykinétides oraux confinés à la cavité buccale. Leur macronoyau est globuleux. Micronoyau et vacuole contractile sont présents. Ce sont des microphages[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Microthoracidae ont une taille généralement très petite petite (&lt; 80 μm, 16 à 60 μm selon Kahl). Ils sont une forme en croissant aplati. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est très clairsemée, typiquement avec trois cinéties somatiques préorales droites ; généralement des dikinetides, antérieures à la région buccale, et des cinéties somatiques gauches très réduites. Leur région buccale a une position variable : antérieure chez certains genres (par exemple Stammeridium) et déplacée vers la partie postérieure chez d'autres (par exemple Microthorax). Ils ont typiquement une ciliation parorale (c'est-à-dire sur le côté droit de la cavité buccale) réduite, et trois petits polykinétides oraux confinés à la cavité buccale. Leur macronoyau est globuleux. Micronoyau et vacuole contractile sont présents. Ce sont des microphages.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Microthoracidae, selon Lynn (d) (2008), vivent dans des habitats terrestres, en particulier les mousses[1].
-Cependant, selon GBIF       (18 juillet 2023)[2], ils ont une large répartition sur le globe, et World Register of Marine Species                               (18 juillet 2023)[3] considère Drepanomonas, Hemicyclium et Microthorax comme des genres marins.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Microthoracidae, selon Lynn (d) (2008), vivent dans des habitats terrestres, en particulier les mousses.
+Cependant, selon GBIF       (18 juillet 2023), ils ont une large répartition sur le globe, et World Register of Marine Species                               (18 juillet 2023) considère Drepanomonas, Hemicyclium et Microthorax comme des genres marins.
 </t>
         </is>
       </c>
@@ -605,16 +623,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 juillet 2023) :
 Dentithorax
 Drepanomonas Fresenius, 1858
 Hemicyclium Eberhard, 1862
 Microthorax Engelmann, 1862 genre type
 Simithorax
 Stammeridium Wenzel, 1969
-Selon Lynn (2008)[1] :
+Selon Lynn (2008) :
 Drepanomonas Fresenius, 1858
 Microthorax Engelmann, 1862
 Stammeridium Wenzel, 1969
@@ -649,9 +669,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Microthoracidae Wrześniowski (d), 1870[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Microthoracidae Wrześniowski (d), 1870.
 </t>
         </is>
       </c>
